--- a/Python NCC Min/Input.xlsx
+++ b/Python NCC Min/Input.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAM\Documents\Vu Quang Nguyen\VACP\Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAM\Documents\Vu Quang Nguyen\VACP\Python NCC Min\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6E05A6-FC26-456D-B245-CE92ED9DB6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -5767,7 +5766,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -6127,12 +6126,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0] 2" xfId="4" xr:uid="{017D8001-9323-4563-9039-9F5A8A84EC40}"/>
-    <cellStyle name="Comma [0] 3" xfId="5" xr:uid="{DFB680E8-6EB9-4971-BBE6-2115B3D4FCC2}"/>
+    <cellStyle name="Comma [0] 2" xfId="4"/>
+    <cellStyle name="Comma [0] 3" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{49784C5D-8F51-41B9-BEF6-1B104FE1FD54}"/>
-    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{CD8BD9FA-448B-4F43-9686-73B19FDA087F}"/>
-    <cellStyle name="Normal_Sheet1_1" xfId="3" xr:uid="{2B31EB90-587D-4F93-B74D-B8D6AF94EAF0}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="6"/>
+    <cellStyle name="Normal_Sheet1_1" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6409,12 +6408,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1894"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43115,14 +43114,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9225C53-7BBB-4724-B862-B3EBE8FCC14C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G306"/>
   <sheetViews>
     <sheetView topLeftCell="A288" workbookViewId="0">
@@ -49804,7 +49803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88CCBBE-87B9-4B05-8D4B-C877D0C338F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E282"/>
   <sheetViews>
     <sheetView topLeftCell="A274" workbookViewId="0">
@@ -53191,7 +53190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB80FA4-5927-4C99-9609-75B2DD706598}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -58263,7 +58262,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E276" xr:uid="{94A4B891-4332-4C2A-A433-B9DCC97F00F1}"/>
+  <autoFilter ref="A3:E276"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -58279,7 +58278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F137709A-B733-488E-8F1C-02131C3520A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1047"/>
   <sheetViews>
     <sheetView topLeftCell="A1035" workbookViewId="0">
